--- a/doc/servicenow/import_incidents_new.xlsx
+++ b/doc/servicenow/import_incidents_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/MY_DOCUMENTS/04_PROJECTS/01_IBM/01_AIOPS/01_CODE/cp4waiops-deployer_41/doc/servicenow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/MY_DOCUMENTS/04_PROJECTS/01_IBM/01_AIOPS/01_CODE/ibm-aiops-deployer/doc/servicenow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3935A0FF-A965-DD44-959F-00F1B40B1D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5867D06-E250-9C4F-BD20-88711D8ACBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="67740" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="67720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="93" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/servicenow/import_incidents_new.xlsx
+++ b/doc/servicenow/import_incidents_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/MY_DOCUMENTS/04_PROJECTS/01_IBM/01_AIOPS/01_CODE/ibm-aiops-deployer/doc/servicenow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/MY_DOCUMENTS/04_PROJECTS/01_IBM/01_AIOPS/01_CODE/ibm-aiops-deployer_41dev/doc/servicenow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5867D06-E250-9C4F-BD20-88711D8ACBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6910E2F9-0480-9A4B-BEAB-0AD53A3652B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="67720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="87">
   <si>
     <t>Number</t>
   </si>
@@ -142,9 +142,6 @@
     <t>RobotShop call rate is too high - RobotShop call rate stays at a high level for an extended period of time</t>
   </si>
   <si>
-    <t>MySQL Deployment was out of Memory. Resolved by increasing memory and restarting mysql pod: oc delete pod -n robot-shop $(oc get po -n robot-shop|grep mysql|awk '{print$1}')</t>
-  </si>
-  <si>
     <t>INC0089202</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>INC0099215</t>
   </si>
   <si>
-    <t>RobotShop dudden increase in the number of erroneous calls - This can be a sign of a problem on one side of the connection</t>
-  </si>
-  <si>
     <t>INC0099219</t>
   </si>
   <si>
@@ -205,16 +199,10 @@
     <t>MySQL memory peak usage anomaly</t>
   </si>
   <si>
-    <t>Predictive Insights indicates an anomaly with MySQL memory peak usage. Could be memory leak?</t>
-  </si>
-  <si>
     <t>INC0099224</t>
   </si>
   <si>
     <t>Robotshop Homepage - Functional verification failed</t>
-  </si>
-  <si>
-    <t>Selenium Script indicates a problem on the Robotshop Homepage - Functional verification failed</t>
   </si>
   <si>
     <t>INC0099225</t>
@@ -255,9 +243,6 @@
   </si>
   <si>
     <t>vSphere Switch Outage: dcwest1-switch023</t>
-  </si>
-  <si>
-    <t>Blade DCWest1-Rack045-DELL3762 is overheating and shutting down.</t>
   </si>
   <si>
     <t>❗ Cause: Switch DCWest1-Switch023 had an short outage.
@@ -272,16 +257,7 @@
 oc delete pod -n robot-shop $(oc get po -n robot-shop|grep ratings|awk '{print$1}'</t>
   </si>
   <si>
-    <t>📥 Checked GIT Commit - a massive reduction in resource limits has been commited by DEV on the mysql Deployment
-❗ Check with DEV to adapt GIT Commit</t>
-  </si>
-  <si>
     <t>Server failure after Fan outage</t>
-  </si>
-  <si>
-    <t>📥 Checked mysql Pod - seems that the mysql Pod hasn't initilized correctly after node outage
-✅ Deleting the mysql Pod solved the CrashLoopBackoff state
-❗ Had to restart ratings Pod as well to pick-up on DB connection</t>
   </si>
   <si>
     <t>📥 Cause: Switch DCWest1-Switch023 had an short outage.
@@ -292,11 +268,6 @@
     <t>Ratings Service outage after K8s Node Failure</t>
   </si>
   <si>
-    <t>Ratings are not displayed anymore after a K8s Node outage.
-CP4WAIOPS indicates a Log Anomaly in the ratings Pod.
-CP4WAIOPS indicates that the MySQL Pod is in CrashLoopBackoff state after a K8s had restarted.</t>
-  </si>
-  <si>
     <t>RobotShop</t>
   </si>
   <si>
@@ -307,6 +278,53 @@
   </si>
   <si>
     <t>CHG9900036</t>
+  </si>
+  <si>
+    <t>❗ Cause: GIT Commit set the MySQL innodb_buffer_pool_size too low
+      - MySQL Database is restarting/killed with OutOfMemory status. 
+      - Ratings Pod is unable to access database. 
+      - After correction, ratings Pod is unable to pick up the restart and has to be restarted as well. 
+✅ Resolved by adapting MySQL innodb_buffer_pool_size and restarting ratings pods.
+🚀 Runbook:
+      Increase innodb_buffer_pool_size for mysql - check with DEV to correct GIT Commit
+      oc delete pod -n robot-shop $(oc get po -n robot-shop|grep ratings|awk '{print$1}'</t>
+  </si>
+  <si>
+    <t>Ratings are not displayed anymore after a GIT Commit by DEV.
+Predictive Insights indicates an anomaly with MySQL memory peak usage. 
+Could be memory leak or a code change in the GIT Commit?.</t>
+  </si>
+  <si>
+    <t>📥 Checked GIT Commit - a massive reduction in innodb_buffer_pool_size has been commited by DEV on the /etc/my.cnf file
+❗ Check with DEV to adapt GIT Commit</t>
+  </si>
+  <si>
+    <t>Blade DCWest1-Rack045-DELL3762 is overheating and shutting down.</t>
+  </si>
+  <si>
+    <t>❗ Cause: Rack Fan had an outage.
+- Blade is overheating and shutting down.
+- vSphere Host becomes unavailable.
+- K8s node becomes unavailable.
+- Ratings Pod is unable to restart reliably after K8s Node outage. 
+- MySQL Pod is in CrashLoopBackoff state and has to be restarted. 
+- Ratings Service is unable to pick up the restart and has to be restarted as well. 
+✅ Resolved by replacing the rack fan.
+🚀 Runbook:
+oc delete pod -n robot-shop $(oc get po -n robot-shop|grep mysql|awk '{print$1}'
+oc delete pod -n robot-shop $(oc get po -n robot-shop|grep ratings|awk '{print$1}'</t>
+  </si>
+  <si>
+    <t>📥  Cause: Rack Fan had an outage.
+- Blade is overheating and shutting down.
+- vSphere Host becomes unavailable.
+- K8s node becomes unavailable.
+- Ratings Pod is unable to restart reliably after K8s Node outage.
+- MySQL Pod is in CrashLoopBackoff state and has to be restarted.
+- Ratings Service is unable to pick up the restart and has to be restarted as well.</t>
+  </si>
+  <si>
+    <t>CHG0040007</t>
   </si>
 </sst>
 </file>
@@ -686,8 +704,8 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="93" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -700,7 +718,7 @@
     <col min="7" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
     <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" customWidth="1"/>
     <col min="14" max="14" width="15" style="3" customWidth="1"/>
@@ -790,16 +808,16 @@
         <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>44313.866226851853</v>
+        <v>45043.866226851853</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>37</v>
@@ -829,19 +847,19 @@
         <v>31</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="1">
-        <v>44316.18377314815</v>
+        <v>45046.18377314815</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>35</v>
@@ -850,27 +868,27 @@
         <v>35</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45044.866226851853</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1">
-        <v>44314.866226851853</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>37</v>
@@ -900,19 +918,19 @@
         <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="1">
-        <v>44317.18377314815</v>
+        <v>45047.18377314815</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>35</v>
@@ -921,27 +939,27 @@
         <v>35</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45055.866226851853</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1">
-        <v>44325.866226851853</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
@@ -971,19 +989,19 @@
         <v>31</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="1">
-        <v>44328.18377314815</v>
+        <v>45058.18377314815</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>35</v>
@@ -992,27 +1010,27 @@
         <v>35</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
-        <v>44313.866226851853</v>
+        <v>45043.866226851853</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>37</v>
@@ -1042,19 +1060,19 @@
         <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2">
         <v>200236</v>
       </c>
       <c r="Q5" s="1">
-        <v>44316.18377314815</v>
+        <v>45046.18377314815</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>29</v>
@@ -1063,27 +1081,27 @@
         <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
-        <v>44314.866226851853</v>
+        <v>45044.866226851853</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -1113,19 +1131,19 @@
         <v>31</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2">
         <v>200236</v>
       </c>
       <c r="Q6" s="1">
-        <v>44317.18377314815</v>
+        <v>45047.18377314815</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>29</v>
@@ -1134,27 +1152,27 @@
         <v>29</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
-        <v>44325.866226851853</v>
+        <v>45055.866226851853</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -1184,19 +1202,19 @@
         <v>31</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2">
         <v>200236</v>
       </c>
       <c r="Q7" s="1">
-        <v>44328.18377314815</v>
+        <v>45058.18377314815</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>29</v>
@@ -1205,27 +1223,27 @@
         <v>29</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
-        <v>44327.866226851853</v>
+        <v>45057.866226851853</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -1255,19 +1273,19 @@
         <v>31</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2">
         <v>200236</v>
       </c>
       <c r="Q8" s="1">
-        <v>44330.18377314815</v>
+        <v>45060.18377314815</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>29</v>
@@ -1276,27 +1294,27 @@
         <v>29</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
-        <v>44331.866226851853</v>
+        <v>45061.866226851853</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -1326,19 +1344,19 @@
         <v>31</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2">
         <v>200236</v>
       </c>
       <c r="Q9" s="1">
-        <v>44334.18377314815</v>
+        <v>45064.18377314815</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>29</v>
@@ -1347,27 +1365,27 @@
         <v>29</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>44332.866226851853</v>
+        <v>45062.866226851853</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>37</v>
@@ -1397,48 +1415,48 @@
         <v>31</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2">
         <v>200236</v>
       </c>
       <c r="Q10" s="1">
-        <v>44335.18377314815</v>
+        <v>45065.18377314815</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
-        <v>44333.866226851853</v>
+        <v>45063.866226851853</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>37</v>
@@ -1468,48 +1486,48 @@
         <v>31</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P11" s="2">
         <v>200236</v>
       </c>
       <c r="Q11" s="1">
-        <v>44336.18377314815</v>
+        <v>45066.18377314815</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1">
-        <v>44334.866226851853</v>
+        <v>45064.866226851853</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>37</v>
@@ -1539,19 +1557,19 @@
         <v>31</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P12" s="2">
         <v>200236</v>
       </c>
       <c r="Q12" s="1">
-        <v>44337.18377314815</v>
+        <v>45067.18377314815</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>35</v>
@@ -1560,27 +1578,27 @@
         <v>35</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1">
-        <v>44335.866226851853</v>
+        <v>45065.866226851853</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>37</v>
@@ -1610,19 +1628,19 @@
         <v>31</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="1">
-        <v>44338.18377314815</v>
+        <v>45068.18377314815</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>29</v>
@@ -1631,27 +1649,27 @@
         <v>29</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1">
-        <v>44335.866226851853</v>
+        <v>45065.866226851853</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>37</v>
@@ -1681,19 +1699,19 @@
         <v>31</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2">
         <v>200236</v>
       </c>
       <c r="Q14" s="1">
-        <v>44338.18377314815</v>
+        <v>45068.18377314815</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>29</v>
@@ -1702,27 +1720,27 @@
         <v>29</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1">
-        <v>44336.866226851853</v>
+        <v>45066.866226851853</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>37</v>
@@ -1752,19 +1770,19 @@
         <v>31</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P15" s="2">
         <v>200236</v>
       </c>
       <c r="Q15" s="1">
-        <v>44339.18377314815</v>
+        <v>45069.18377314815</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>35</v>
@@ -1773,27 +1791,27 @@
         <v>35</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1">
-        <v>44337.866226851853</v>
+        <v>45067.866226851853</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>37</v>
@@ -1823,19 +1841,19 @@
         <v>31</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P16" s="2">
         <v>200236</v>
       </c>
       <c r="Q16" s="1">
-        <v>44340.18377314815</v>
+        <v>45070.18377314815</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>35</v>
@@ -1844,33 +1862,33 @@
         <v>35</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1">
-        <v>44338.866226851853</v>
+        <v>45070.866226851853</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>25</v>
@@ -1885,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="L17" s="1">
-        <v>45056.250289351854</v>
+        <v>45056.250300925924</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>27</v>
@@ -1894,17 +1912,20 @@
         <v>31</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P17" s="2">
         <v>200236</v>
       </c>
       <c r="Q17" s="1">
-        <v>44341.18377314815</v>
+        <v>45073.18377314815</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="S17" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="T17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1912,33 +1933,33 @@
         <v>35</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45071.866226851853</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="1">
-        <v>44339.866226851853</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>25</v>
@@ -1953,7 +1974,7 @@
         <v>34</v>
       </c>
       <c r="L18" s="1">
-        <v>45056.250289351854</v>
+        <v>45056.250300925924</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>27</v>
@@ -1962,17 +1983,20 @@
         <v>31</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P18" s="2">
         <v>200236</v>
       </c>
       <c r="Q18" s="1">
-        <v>44342.18377314815</v>
+        <v>45074.18377314815</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="S18" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="T18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1980,10 +2004,10 @@
         <v>35</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,16 +2015,16 @@
         <v>68</v>
       </c>
       <c r="B19" s="1">
-        <v>44340.866226851853</v>
+        <v>45074.866226851853</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>37</v>
@@ -2030,19 +2054,19 @@
         <v>31</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P19" s="2">
         <v>200236</v>
       </c>
       <c r="Q19" s="1">
-        <v>44343.18377314815</v>
+        <v>45077.18377314815</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>35</v>
@@ -2051,18 +2075,18 @@
         <v>35</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1">
-        <v>44341.866226851853</v>
+        <v>45069.866226851853</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>71</v>
@@ -2071,13 +2095,13 @@
         <v>71</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>25</v>
@@ -2092,7 +2116,7 @@
         <v>34</v>
       </c>
       <c r="L20" s="1">
-        <v>45056.250300925924</v>
+        <v>45056.250289351854</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>27</v>
@@ -2101,20 +2125,17 @@
         <v>31</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2">
         <v>200236</v>
       </c>
       <c r="Q20" s="1">
-        <v>44344.18377314815</v>
+        <v>45072.18377314815</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>35</v>
       </c>
@@ -2122,33 +2143,33 @@
         <v>35</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1">
-        <v>44344.866226851853</v>
+        <v>45068.866226851853</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>25</v>
@@ -2163,7 +2184,7 @@
         <v>34</v>
       </c>
       <c r="L21" s="1">
-        <v>45056.250300925924</v>
+        <v>45056.250289351854</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>27</v>
@@ -2172,19 +2193,19 @@
         <v>31</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P21" s="2">
         <v>200236</v>
       </c>
       <c r="Q21" s="1">
-        <v>44347.18377314815</v>
+        <v>45071.18377314815</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>35</v>
@@ -2193,10 +2214,10 @@
         <v>35</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/doc/servicenow/import_incidents_new.xlsx
+++ b/doc/servicenow/import_incidents_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/MY_DOCUMENTS/04_PROJECTS/01_IBM/01_AIOPS/01_CODE/ibm-aiops-deployer_41dev/doc/servicenow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6910E2F9-0480-9A4B-BEAB-0AD53A3652B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F66A69-D5F6-EA4D-A2A7-216D2D68BDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="67720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
 - Ratings Service is unable to pick up the restart and has to be restarted as well.</t>
   </si>
   <si>
-    <t>CHG0040007</t>
+    <t>CHG0040002</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="93" customHeight="1" x14ac:dyDescent="0.2"/>
